--- a/开发文档/项目计划/SE2020-G10-第三周任务以及绩效评价.xlsx
+++ b/开发文档/项目计划/SE2020-G10-第三周任务以及绩效评价.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SE2020-CityNorthBook\开发文档\项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
-  <si>
-    <t>项目计划修订原负责部分</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>OBS组织结构图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,31 +93,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划修订原负责部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器配置mysql和tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>初步可行性分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议与版本规则制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划ppt制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS结构图</t>
+  </si>
+  <si>
     <t>项目计划gantt图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步可行性分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议与版本规则制定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWOT分析</t>
+  </si>
+  <si>
+    <t>初步撰写项目计划书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,11 +131,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WBS结构图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目计划ppt制作</t>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步SWOT分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -578,258 +585,242 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="7">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="7">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F15:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
